--- a/allestamam/evidence.xlsx
+++ b/allestamam/evidence.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -939,7 +939,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1122,10 +1122,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1171,6 +1171,46 @@
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
     </row>
